--- a/original.xlsx
+++ b/original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\play-letcode\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\code\book-cart-app-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C216F11-9263-4151-85E2-98F93E7F4D30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D818CAC6-2FEE-4FDC-AAB2-A48D0A9B4025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{7EA6820C-B910-4B34-A4DA-D6740BCCAF10}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
